--- a/P/Work.WebApp/_Code/Excel/超度法會(薦拔祖先-歷代祖先)名冊.xlsx
+++ b/P/Work.WebApp/_Code/Excel/超度法會(薦拔祖先-歷代祖先)名冊.xlsx
@@ -133,7 +133,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -208,21 +208,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -251,7 +236,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -267,19 +252,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -323,7 +295,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -337,7 +311,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -350,7 +324,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -360,40 +458,38 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -401,10 +497,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -414,10 +510,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -427,16 +523,42 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -445,29 +567,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -482,89 +604,155 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" textRotation="255"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <alignment vertical="distributed" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" wrapText="1"/>
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="255" wrapText="1"/>
+      <alignment vertical="distributed" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection sqref="A1:A32"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -908,469 +1096,469 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="10"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="30"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="11"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="31"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="11"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="24"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="11"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="33"/>
     </row>
     <row r="7" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="37"/>
     </row>
     <row r="8" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="19"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="19"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="19"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="19"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="19"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="33"/>
     </row>
     <row r="23" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="15"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="15"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="45"/>
     </row>
     <row r="25" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="15"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="45"/>
     </row>
     <row r="26" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="15"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="49"/>
     </row>
     <row r="27" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
     </row>
     <row r="29" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
     </row>
     <row r="30" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="11"/>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -1387,7 +1575,7 @@
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="11"/>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -1404,64 +1592,6 @@
       <c r="M32" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A32"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="C7:C22"/>
-    <mergeCell ref="D7:D22"/>
-    <mergeCell ref="E7:E22"/>
-    <mergeCell ref="F7:F22"/>
-    <mergeCell ref="G7:G22"/>
-    <mergeCell ref="H7:H22"/>
-    <mergeCell ref="I7:I22"/>
-    <mergeCell ref="J7:J22"/>
-    <mergeCell ref="K7:K22"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="L7:L22"/>
-    <mergeCell ref="M7:M22"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
-    <mergeCell ref="G23:G26"/>
-    <mergeCell ref="H23:H26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="M27:M30"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="M23:M26"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
